--- a/timetable_gantt.xlsx
+++ b/timetable_gantt.xlsx
@@ -160,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -355,21 +355,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="22"/>
@@ -510,26 +495,487 @@
       <left style="thin">
         <color indexed="22"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color theme="1"/>
+        <color indexed="22"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,6 +983,75 @@
         <color indexed="22"/>
       </left>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
         <color indexed="22"/>
       </top>
@@ -546,6 +1061,250 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
       <top/>
       <bottom style="thick">
         <color auto="1"/>
@@ -553,103 +1312,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -657,584 +1326,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1266,7 +1367,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1278,14 +1379,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,28 +1389,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1331,18 +1405,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
@@ -1355,50 +1428,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1755,7 +1860,7 @@
   <dimension ref="B1:AL27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q18"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1766,162 +1871,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="17" thickBot="1">
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
     </row>
     <row r="2" spans="2:38" ht="20" customHeight="1" thickTop="1">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="96"/>
     </row>
     <row r="3" spans="2:38" ht="20" customHeight="1" thickBot="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="101">
+      <c r="B3" s="89"/>
+      <c r="C3" s="85">
         <v>10</v>
       </c>
-      <c r="D3" s="100">
+      <c r="D3" s="84">
         <v>11</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="15">
         <v>12</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <v>2</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <v>3</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="13">
         <v>4</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="13">
         <v>5</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="13">
         <v>6</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="13">
         <v>7</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="13">
         <v>8</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="13">
         <v>9</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="13">
         <v>10</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="13">
         <v>11</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:38" ht="20" customHeight="1">
-      <c r="B4" s="93" t="s">
+    <row r="4" spans="2:38" ht="20" customHeight="1" thickBot="1">
+      <c r="B4" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="85"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="69"/>
     </row>
     <row r="5" spans="2:38" ht="20" customHeight="1" thickBot="1">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="77"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="64"/>
     </row>
     <row r="6" spans="2:38" ht="20" customHeight="1">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1931,17 +2036,17 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="66"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
     </row>
     <row r="7" spans="2:38" ht="20" customHeight="1">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="31"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1951,18 +2056,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="52"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="2:38" ht="20" customHeight="1">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1971,209 +2076,209 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="52"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="43"/>
     </row>
     <row r="9" spans="2:38" ht="20" customHeight="1">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="4"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="52"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="43"/>
     </row>
     <row r="10" spans="2:38" ht="20" customHeight="1">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="33"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="52"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="2:38" ht="20" customHeight="1" thickBot="1">
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="49"/>
     </row>
     <row r="12" spans="2:38" ht="20" customHeight="1" thickBot="1">
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="61"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
     </row>
     <row r="13" spans="2:38" ht="20" customHeight="1">
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="81" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="2:38" ht="20" customHeight="1">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="52"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="43"/>
     </row>
     <row r="15" spans="2:38" ht="20" customHeight="1">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="52"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="2:38" ht="20" customHeight="1">
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="52"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="43"/>
     </row>
     <row r="17" spans="2:17" ht="20" customHeight="1">
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="38"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="10"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="52"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="2:17" ht="20" customHeight="1" thickBot="1">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="46"/>
     </row>
     <row r="19" spans="2:17" ht="20" customHeight="1" thickTop="1"/>
     <row r="20" spans="2:17" ht="20" customHeight="1"/>
